--- a/DevelopersSentiments.xlsx
+++ b/DevelopersSentiments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rui\Estudo\MSC Unifacs\Acadêmico\Dissertação\Orientação\Glauco\reuniões orientação glauco\reunião 20191230\ICEIS 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rui\Estudo\MSC Unifacs\Acadêmico\Dissertação\Orientação\Glauco\reuniões orientação glauco\reuniao 20200105\ICEIS 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021FBED6-DE95-4FD9-AE33-F3681FC88D89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05253BD5-B53D-4208-B6BF-6284B956969D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="sources" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">impacts!$A$1:$E$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">impacts!$A$1:$E$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ours bibs'!$A$1:$J$230</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">selecteds!$A$2:$P$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">sources!#REF!</definedName>
@@ -234,1433 +234,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{1814B620-91AF-4EB0-9A0B-770D6F66BC27}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Não extrai sentimentos de issues. Foram realizadas entrevistas: "Most interviews were done face-to-face and some occurred over the phone."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{7EC4EEAF-8F74-478C-8B9D-3E611DB29CC4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* embora o artigo tem foco na prática (trabalho remoto / coworking)
-Sentimento: positivo (melhor equilíbrio entre a vida profissional e pesssoal decorrente da flexibilidade do local de trabalho)
-Prática: produtividade
-Impacto: maior
-In addition to better work-life balance, several participants
-mentioned that incorporating working from home in their
-work ecology actually made them more productive and
-efficient,
-“My impression is that I can be more productive working
-from home that working from the office..."
-Sentimento: positivo (sem pressa)
-Prática: resolução de problemas
-Impacto: melhor (eficiência)
-“I've I really enjoyed kind of the freedom of being able to
-wake up kind of when I feel like it that helps my day go
-better; I found that at the end I can really start to answer
-questions and solve problems a lot better than when I don't
-feel rushed..."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{B43F3301-F0F6-4A2C-A246-2B7DBAE4478F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* embora o artigo tenha foco na prática (trabalho remoto / coworking)
-Sentimento: positivo (melhor equilíbrio entre a vida profissional e pesssoal decorrente da flexibilidade do local de trabalho)
-Prática: produtividade
-Impacto: maior
-In addition to better work-life balance, several participants
-mentioned that incorporating working from home in their
-work ecology actually made them more productive and
-efficient,
-“My impression is that I can be more productive working
-from home that working from the office..."
-Sentimento: positivo (sem pressa)
-Prática: resolução de problemas
-Impacto: melhor (eficiência)
-“I've I really enjoyed kind of the freedom of being able to
-wake up kind of when I feel like it that helps my day go
-better; I found that at the end I can really start to answer
-questions and solve problems a lot better than when I don't
-feel rushed..."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{D858B2DE-8626-417B-8946-7943C692964B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"We observed that reviews with negative comments on average take longer time to complete. In contrast, the reviews with positive sentiments had a lower duration"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{6C1034AA-E402-4DAC-8867-6CDF353C9FA9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Estuda sentimentos associados a revisão de código.
-Sentimento: negativo
-Prática: revisão de código
-Impacto: mais demorada (morosidade)
-Sentimento: positivo
-Prática: revisão de código
-Impacto: mais rápida (agilidade)
-"We observed that reviews with negative comments on average take longer time to complete. In contrast, the reviews with positive sentiments had a lower duration"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{DF98C125-05B3-4AD8-9CD1-1A62968B6D6B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: positivo
-Prática: revisão de código
-Impacto: mais rápida (agilidade)
-"We observed that reviews with negative comments on average take longer time to complete. In contrast, the reviews with positive sentiments had a lower duration"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{CB1859ED-9563-40FC-B328-0146783324DE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Estuda sentimentos associados a revisão de código.
-Sentimento: negativo
-Prática: revisão de código
-Impacto: mais demorada (morosidade)
-"We observed that reviews with negative comments on average take longer time to complete. In contrast, the reviews with positive sentiments had a lower duration"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{F20CCAE4-77E9-4202-9DC4-625D22A51D6D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Não extrai sentimentos de issues. Foram realizadas entrevistas: "Using qualitative data analysis of the responses given by 181 questionnaire participants"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{E4238B94-9288-451C-9C42-E366AB3E9854}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Dados completos em: https://doi.org/10.6084/m9.figshare.c.3355707.v9
-“[negative experience] definitely makes me work slower” 
-Sentimento: infelicidade
-Prática: produtividade
-Impacto: baixa
-“In both cases [negative experiences] the emotional toll on me caused delays to the project”
-Sentimento: infelicidade
-Prática: execução de atividades do projeto
-Impacto: atraso
-“Unhappiness causes glitches to communication activities and a disorganized process: Miscommunication and disorganization made it very difficult to meet deadlines”
-Sentimento: infelicidade
-Prática: comunicação
-Impacto: ausência
-“Unhappiness causes glitches to communication activities and a disorganized process: Miscommunication and disorganization made it very difficult to meet deadlines”
-Sentimento: infelicidade
-Prática: organização
-Impacto: ausência
-(...)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{5F2E1B80-BD01-4BCF-8F9C-88CB66E3717A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Dados completos em: https://doi.org/10.6084/m9.figshare.c.3355707.v9
-“eventually [due to negative experiences], code quality cannot be assured.
-So this will make my code messy and more bug can be found in it”
-Sentimento: infelicidade
-Artefato: código fonte
-Impacto: baixa qualidade
-“deleted the code that I was writing because I was a bit angry”
-Sentimento: infelicidade
-Artefato: código fonte
-Impacto: "descarga" (se desfazer, joga fora)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{B85898F5-D7FA-4B1E-A3AB-DE0138FA2389}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-“[negative experience] definitely makes me work slower” 
-Sentimento: infelicidade
-Prática: produtividade
-Impacto: baixa
-“In both cases [negative experiences] the emotional toll on me caused delays to the project”
-Sentimento: infelicidade
-Prática: execução de atividades do projeto
-Impacto: atraso
-“Unhappiness causes glitches to communication activities and a disorganized process: Miscommunication and disorganization made it very difficult to meet deadlines”
-Sentimento: infelicidade
-Prática: comunicação
-Impacto: ausência
-“Unhappiness causes glitches to communication activities and a disorganized process: Miscommunication and disorganization made it very difficult to meet deadlines”
-Sentimento: infelicidade
-Prática: organização
-Impacto: ausência
-(...)
-Dados completos em: https://doi.org/10.6084/m9.figshare.c.3355707.v9
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{55825BF8-21D0-46B0-BE5B-66B89DB7F16C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: infelicidade
-Artefato: código fonte
-Impacto: baixa qualidade
-Ex: “eventually [due to negative experiences], code quality cannot be assured.
-So this will make my code messy and more bug can be found in it”
-Sentimento: infelicidade
-Artefato: código fonte
-Impacto: "descarga" (se desfazer, joga fora)
-Ex: “deleted the code that I was writing because I was a bit angry”
-Dados completos em: https://doi.org/10.6084/m9.figshare.c.3355707.v9
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{7188B78F-051C-4A1F-9CCD-E2B36592C491}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-"We found evidence that suggests that negative sentiment correlates with issue reopening, although the effect size seems to be rather small"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{9B4EF8B4-CAF8-40E2-A05F-11A5D58546EA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Rui:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>"extreme scores (high positive and low negative scores), the proportion of issues that have been opened at least once is larger"</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-(no estudo, a relação encontrada não deixa claro se é o sentimento que leva a uma maior taxa de reabertura ou o inverso, embora os autores sugiram a primeira hipótese)
-Sentimento: negativo </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>extremo</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Prática: reabertura de issue
-Impacto: maior taxa de reabertura
-Sentimento: positivo </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>extremo</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Prática: reabertura de issue
-Impacto: maior taxa de reabertura</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{FB7E75A3-327E-4007-AD21-204E6044B138}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Rui:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: positivo </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>extremo</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Prática: reabertura de issue
-Impacto: maior taxa de reabertura
-"extreme scores (high positive and low negative scores), the proportion of issues that have been opened at least once is larger"
-(no estudo, a relação encontrada não deixa claro se é o sentimento que leva a uma maior taxa de reabertura ou o inverso, embora os autores sugiram a primeira hipótese)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{77EF4B7E-C067-4E56-9464-AEC24501BE6D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Rui:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: negativo extremo
-Prática: reabertura de issue
-Impacto: maior taxa de reabertura
-"extreme scores (high positive and low negative scores), the proportion of issues that have been opened at least once is larger"
-(no estudo, a relação encontrada não deixa claro se é o sentimento que leva a uma maior taxa de reabertura ou o inverso, embora os autores sugiram a primeira hipótese)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{91BFC2D3-AC10-4163-A0F1-DD2503427B3F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"Lee et al. [21] showed that one-time contributors face higher
-rejection of their commits and a longer reviewing process; in our
-study, we provided various insights which might explain why this
-happens. We found that OCDs with lower levels of politeness were more likely to be unmerged. Namely, their commits will never
-be integrated into the main repository. This can be explained by
-the following scenario: a OCDs requests a bug resolution they are interested in, but MCDs consider the request not to be important.
-Hence, the OCDs fixes the bug and commits the changes for the
-fix. The community peer-review the commits and either decides to accept or reject it. In this scenario, the proposed commits may or may not be of interest to the community, or the commit does not match the community coding standards, and it is rejected with not very nice comments."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{9C332CEC-312A-4B7C-B38B-0C091A9B8214}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: baixa cortesia por parte de colaboradores pouco ativos
-Prática: aceitação de compromisso ; Impacto: menor impedimento
-Prática: revisão; Impacto: menos longa
-"Lee et al. [21] showed that one-time contributors face higher
-rejection of their commits and a longer reviewing process; in our
-study, we provided various insights which might explain why this
-happens. We found that OCDs with lower levels of politeness were more likely to be unmerged."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{B7CA306A-25DA-4CFC-879B-B6E6BDA6F8A6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: baixa cortesia por parte de colaboradores pouco ativos
-Prática: aceitação de commits ; Impacto: menor impedimento
-Prática: revisão; Impacto: menos longa
-"Lee et al. [21] showed that one-time contributors face higher
-rejection of their commits and a longer reviewing process; in our
-study, we provided various insights which might explain why this
-happens. We found that OCDs with lower levels of politeness were
-more likely to be unmerged."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{1C6F7A28-4947-461D-8F7E-AE2430075527}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Não extrai sentimentos de issues. Extrai de lista de emails: "In this paper, we research on how to predict software defects by mining the mailing lists of the software developers."
-"Furthermore, we found that (1) messages
-having certain structures may indicate some defect related files;
-(2) the sentiment and some topic-specific mailing models are of strong correlations with the software defects."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{D6A834CF-CA7D-4EF1-8FCE-765C0C1D4B47}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimentos: emoções positivas
-Artefato: código fonte 
-Impacto: menos defeituoso
-"Table V shows the result of the study on the research question 2. We compare the differences between positive emotion and negative emotions with the threshold value (which is 2 in experiment). It can be seen that the emails whose emotion difference value is larger than the threshold value tend to be linked with less defective files and those whose emotion value is less than threshold value tend to be linked with more defective files."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{F064C67B-CA6A-485C-956E-5AC57043EDCB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimentos: emoções positivas
-Artefato: código fonte 
-Impacto: menos defeituoso
-"Table V shows the result of the study on the research question 2. We compare the differences between positive emotion and negative emotions with the threshold value (which is 2 in experiment). It can be seen that the emails whose emotion difference value is larger than the threshold value tend to be linked with less defective files and those whose emotion value is less than threshold value tend to be linked with more defective files."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{BD7CD4A5-2325-4CEF-AB40-CD8A115B8E32}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-"In Section 3, the correlation between emotional factors and bug fixing speed in open source software development is analyzed."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{7958C11D-892A-4D14-88D0-3AEDD6C86D0E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: positivo
-Prática: "tempo de fixação de bugs"
-Impacto: menor
-"The correlation between emotional value and bug fixing
-speed is shown in Figures 4 to 7."
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{066CBF1E-4CCB-4E51-B669-6F44723C6A7F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: positivo
-Prática: velocidade correção de erro (BFS)
-Impacto: maior
-"Definition 1. Bug fixing speed(BFS)
-Bug fixing speed (BFS) refers to the average number of problems that has been resolved within a certain period of time. "
-"The correlation between emotional value and bug fixing
-speed is shown in Figures 4 to 7."
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{8556CA3B-B177-4C4D-BB4A-0E50D57F2C0F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: confiança
-Prática: difusão; 
-Impato: novas trajetórias (métodos?)
-"When c = 0, the majority of diffusions exhibit the
-classic S -curve [1]. However, more diffusion trajectories appear with the increase of c, which indicates that baseline trust
-diversifies trust and cooperation’s diffusion."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{96BC8B73-CEAC-4045-9A0D-03E20217B3F3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: confiança
-Prática: difusão; 
-Impato: novas trajetórias (métodos?)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{A4B15374-9D20-4BFA-89C4-0884E3D916E6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Não extrai sentimentos de issues. Extrai de commits:
-"We study commit messages for open-source projects obtained through Boa [7]"
-"The findings add to our understanding of the role of emotions in software development, and expose scopes for exploitation of emotional awareness in improved task assignments and collaborations."
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{13BD104D-CEBD-486D-90EA-B2584347624F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Ans. to RQ4: Developers’ emotions have statistically significant impacts on the lengths of commit messages they
-write. Developers post longer commit comments when they
-are emotionally active.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{254FCFFC-63DA-429B-88F1-4BBE0E35E482}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: positivo </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>intensamente</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Artefato: mensagens de commits
-Impacto: mais longas
-"Ans. to RQ4: Developers’ emotions have statistically significant impacts on the lengths of commit messages they write. Developers post longer commit comments when they
-are emotionally active."
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{B128EDED-7195-4682-98AE-AF8DC298C76E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: negativo </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>intensamente</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Artefato: mensagens de commits
-Impacto: mais longas
-"Ans. to RQ4: Developers’ emotions have statistically significant impacts on the lengths of commit messages they write. Developers post longer commit comments when they
-are emotionally active."
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{9A457A41-CD37-471B-8548-4EF3E2A516E8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Desconfiança inibe reutilização de código:
-"Having ingroup bias often limits boundaries of trust and cooperation [46], which may explain why some developers avoid copy and paste at all cost. They do not trust other programmers enough to take responsibility for and ownership of their code. These programmers find it difficult to understand existing code, they feel that they cannot identify fallacies in someone else’s code nor test it thoroughly. They prefer to write the code by themselves and take responsibility for it rather than trust others, and perhaps lose control over their code"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{7C9B3924-829C-44B1-BF5A-A135AD173C91}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: desconfiança
-Prática: reuso de código fonte
-Impacto: inibe
-"Having ingroup bias often limits boundaries of trust and cooperation [46], which may explain why some developers avoid copy and paste at all cost. They do not trust other programmers enough to take responsibility for and ownership of their code. These programmers find it difficult to understand existing code, they feel that they cannot identify fallacies in someone else’s code nor test it thoroughly. They prefer to write the code by themselves and take responsibility for it rather than trust others, and perhaps lose control over their code"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{92667269-5AE3-481C-8954-27765F2FB7EF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: desconfiança
-Prática: reuso de código fonte
-Impacto: inibe
-"Having ingroup bias often limits boundaries of trust and cooperation [46], which may explain why some developers avoid copy and paste at all cost. They do not trust other programmers enough to take responsibility for and ownership of their code. These programmers find it difficult to understand existing code, they feel that they cannot identify fallacies in someone else’s code nor test it thoroughly. They prefer to write the code by themselves and take responsibility for it rather than trust others, and perhaps lose control over their code"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{DD35E0E0-F4AF-42A0-A94F-736AD3F831A7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Diversos sentimentos, práticas e artefatos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{8D55CDD7-DAB0-46F4-93B9-B97298015D62}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Diversos sentimentos e práticas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{CCE8C72D-C352-43F2-8A6D-8FD649C80593}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Diversos sentimentos e práticas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{D4C1E302-D79C-4272-9586-74664D2B08A8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: felicidade
-Prática: diversas
-Impacto: diversos
-"Fig. 2"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{F817FE20-6B68-4DB9-AFAC-4513A6988BB7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: infelicidade
-Prática: diversas
-Impacto: diversos
-"Fig. 1"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{78A96BEE-6A2E-4112-ACA6-A8C9A4415DAB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: felicidade
-Artefato: código fonte
-Impacto: alta qualidade
-"Fig. 2"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{607E2890-53D2-4389-846D-28087639E113}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: infelicidade
-Artefato: código fonte
-Impacto: baixa qualidade
-Sentimento: infelicidade
-Artefato: código fonte
-Impacto: descarte
-"Fig. 1"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{BEF6E3E1-AB50-455E-B911-1BB7EA2D87F7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Considerando que o número de estralas reflete o nível satisfação e insatisfação com um projeto, este número é utilizado como parâmetro para desenvolvedores usarem ou contribuírem com o projeto: 
-"GitHub developers star repositories mainly to showappreciation to the projects (52.5%)"
-"we report that three out of four developers consider the number of stars before using or contributing
-to a GitHub project"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{074CA9D6-E7BD-4EAB-92E9-A46775B54825}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: satisfação (representado pelas estrelas)
-Prática: uso ou contribuição com o projeto
-Impacto: influência
-Sentimento: insatisfação (representado pelas estrelas)
-Prática: uso ou contribuição com o projeto
-Impacto: influência
-"GitHub developers star repositories mainly to showappreciation to the projects (52.5%)"
-"As observed in Table 3, 73% of the participants consider the number of stars before using or contributing to GitHub projects"
-" Considering the participants who answered positively to this second question, 26.5% commented that the number of stars has a high influence on their decision of using or contributing to a project."
-"Three out of four developers consider the number of
-stars before using or contributing to GitHub projects."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{182B4FB1-5609-48EB-9211-FA42009746F6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: satisfação (representado pelas estrelas)
-Prática: uso do projeto
-Impacto: aumenta interesse
-Sentimento: satisfação (representado pelas estrelas)
-Prática: contribuição com o projeto
-Impacto: aumenta interesse
-"GitHub developers star repositories mainly to showappreciation to the projects (52.5%)"
-"As observed in Table 3, 73% of the participants consider the number of stars before using or contributing to GitHub projects"
-" Considering the participants who answered positively to this second question, 26.5% commented that the number of stars has a high influence on their decision of using or contributing to a project."
-"Three out of four developers consider the number of
-stars before using or contributing to GitHub projects."</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{4A99927B-E4EA-4990-BA20-0C67A74F68E3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rui:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sentimento: insatisfação (representado pelas estrelas)
-Prática: uso ou contribuição com o projeto
-Impacto: influência
-"GitHub developers star repositories mainly to showappreciation to the projects (52.5%)"
-"As observed in Table 3, 73% of the participants consider the number of stars before using or contributing to GitHub projects"
-" Considering the participants who answered positively to this second question, 26.5% commented that the number of stars has a high influence on their decision of using or contributing to a project."
-"Three out of four developers consider the number of
-stars before using or contributing to GitHub projects."</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="726">
   <si>
     <t>Source</t>
   </si>
@@ -3510,9 +2089,6 @@
     <t>Proceedings of the 4rd International Workshop on Emotion Awareness in Software Engineering, SEmotion@ICSE 2019, Montréal, Canada, May 28, 2019</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -3724,9 +2300,6 @@
   </si>
   <si>
     <t>Faster</t>
-  </si>
-  <si>
-    <t>Flow</t>
   </si>
   <si>
     <t>Sustained</t>
@@ -3858,12 +2431,21 @@
   <si>
     <t>Authors</t>
   </si>
+  <si>
+    <t>Work flow</t>
+  </si>
+  <si>
+    <t>Increased Interest</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3910,19 +2492,6 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4155,9 +2724,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4250,46 +2819,46 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4298,16 +2867,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4331,49 +2903,49 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6537,7 +5109,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{88D0D14C-432D-4CAA-AF3F-DFE2AAD2E722}</c15:txfldGUID>
-                      <c15:f>sources!$D$25</c15:f>
+                      <c15:f>sources!$D$24</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6588,7 +5160,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sources!$D$19:$D$25</c:f>
+              <c:f>sources!$D$18:$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6617,7 +5189,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sources!$E$19:$E$25</c:f>
+              <c:f>sources!$E$18:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6628,7 +5200,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -10000,9 +8572,7 @@
   </sheetPr>
   <dimension ref="A1:AMP236"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10027,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -16297,10 +14867,10 @@
     </row>
     <row r="233" spans="1:1030" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -16314,7 +14884,7 @@
         <v>5</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -16328,7 +14898,7 @@
         <v>143</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -17362,7 +15932,7 @@
         <v>188</v>
       </c>
       <c r="B236" s="51" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
@@ -18430,80 +17000,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1030" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>616</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>724</v>
-      </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>617</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>618</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>619</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="I1" s="57" t="s">
         <v>620</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="57" t="s">
+        <v>622</v>
+      </c>
+      <c r="K1" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="L1" s="57" t="s">
         <v>623</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>622</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>624</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>649</v>
-      </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="59" t="s">
+      <c r="M1" s="58" t="s">
+        <v>648</v>
+      </c>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="P1" s="61"/>
+    </row>
+    <row r="2" spans="1:1030" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="63"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="34" t="s">
         <v>627</v>
       </c>
-      <c r="P1" s="60"/>
-    </row>
-    <row r="2" spans="1:1030" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>628</v>
       </c>
-      <c r="N2" s="34" t="s">
-        <v>629</v>
-      </c>
       <c r="O2" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="P2" s="34" t="s">
         <v>628</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:1030" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>5</v>
@@ -18515,31 +17085,31 @@
         <v>64</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>624</v>
+      </c>
+      <c r="L3" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>626</v>
-      </c>
       <c r="M3" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
@@ -18547,7 +17117,7 @@
     </row>
     <row r="4" spans="1:1030" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>188</v>
@@ -18559,41 +17129,41 @@
         <v>206</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>624</v>
+      </c>
+      <c r="L4" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>626</v>
-      </c>
       <c r="M4" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O4" s="32"/>
       <c r="P4" s="32"/>
     </row>
     <row r="5" spans="1:1030" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>5</v>
@@ -18605,40 +17175,40 @@
         <v>611</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" spans="1:1030" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>5</v>
@@ -18650,41 +17220,41 @@
         <v>613</v>
       </c>
       <c r="E6" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="L6" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>626</v>
-      </c>
       <c r="M6" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O6" s="32"/>
       <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:1030" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>5</v>
@@ -18696,39 +17266,39 @@
         <v>93</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="L7" s="21" t="s">
         <v>625</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>626</v>
       </c>
       <c r="M7" s="32"/>
       <c r="N7" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:1030" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>143</v>
@@ -18740,39 +17310,39 @@
         <v>538</v>
       </c>
       <c r="E8" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>626</v>
-      </c>
       <c r="L8" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
       <c r="O8" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:1030" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>143</v>
@@ -18784,31 +17354,31 @@
         <v>182</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="L9" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>626</v>
-      </c>
       <c r="M9" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
@@ -18825,7 +17395,7 @@
     </row>
     <row r="10" spans="1:1030" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>5</v>
@@ -18837,31 +17407,31 @@
         <v>517</v>
       </c>
       <c r="E10" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="L10" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>626</v>
-      </c>
       <c r="M10" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
@@ -18878,7 +17448,7 @@
     </row>
     <row r="11" spans="1:1030" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>143</v>
@@ -18890,41 +17460,41 @@
         <v>153</v>
       </c>
       <c r="E11" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="K11" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>626</v>
-      </c>
       <c r="L11" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
       <c r="O11" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:1030" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>188</v>
@@ -18936,39 +17506,39 @@
         <v>224</v>
       </c>
       <c r="E12" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>624</v>
+      </c>
+      <c r="L12" s="21" t="s">
         <v>625</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>626</v>
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:1030" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>188</v>
@@ -18980,45 +17550,45 @@
         <v>294</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="14" spans="1:1030" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>188</v>
@@ -19030,34 +17600,34 @@
         <v>230</v>
       </c>
       <c r="E14" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>624</v>
+      </c>
+      <c r="L14" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>626</v>
-      </c>
       <c r="M14" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
@@ -19114,65 +17684,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
-        <v>649</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
-      <c r="F1" s="66" t="s">
-        <v>627</v>
-      </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="65" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
+      <c r="F1" s="67" t="s">
+        <v>626</v>
+      </c>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
+        <v>634</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>629</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>630</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>631</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>634</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>629</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>630</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>631</v>
+      </c>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="64"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="71" t="s">
+        <v>632</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>635</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>630</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>631</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>632</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>635</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H2" s="67" t="s">
-        <v>631</v>
-      </c>
-      <c r="I2" s="67" t="s">
-        <v>632</v>
-      </c>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="63"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="s">
-        <v>633</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>636</v>
-      </c>
       <c r="C4" s="48" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D4" s="48">
         <v>2</v>
@@ -19181,14 +17751,14 @@
         <f>D4/D9</f>
         <v>0.25</v>
       </c>
-      <c r="F4" s="72" t="s">
-        <v>633</v>
+      <c r="F4" s="73" t="s">
+        <v>632</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I4" s="36">
         <v>1</v>
@@ -19199,12 +17769,12 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="49" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D5" s="48">
         <v>1</v>
@@ -19213,12 +17783,12 @@
         <f>D5/D9</f>
         <v>0.125</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I5" s="37">
         <v>2</v>
@@ -19229,12 +17799,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="48" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D6" s="48">
         <v>1</v>
@@ -19253,12 +17823,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="49" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D7" s="48">
         <v>1</v>
@@ -19269,12 +17839,12 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="49" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D8" s="49">
         <v>3</v>
@@ -19306,52 +17876,52 @@
       <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
-        <v>635</v>
-      </c>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="64" t="s">
+        <v>634</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>629</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="D11" s="64" t="s">
         <v>631</v>
       </c>
-      <c r="D11" s="63" t="s">
-        <v>632</v>
-      </c>
       <c r="E11" s="41"/>
-      <c r="F11" s="67" t="s">
-        <v>635</v>
-      </c>
-      <c r="G11" s="67" t="s">
+      <c r="F11" s="68" t="s">
+        <v>634</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>629</v>
+      </c>
+      <c r="H11" s="68" t="s">
         <v>630</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="I11" s="68" t="s">
         <v>631</v>
       </c>
-      <c r="I11" s="67" t="s">
-        <v>632</v>
-      </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
-        <v>634</v>
+      <c r="A13" s="72" t="s">
+        <v>633</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D13" s="48">
         <v>1</v>
@@ -19360,14 +17930,14 @@
         <f>D13/D18</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F13" s="72" t="s">
-        <v>634</v>
+      <c r="F13" s="73" t="s">
+        <v>633</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I13" s="48">
         <v>2</v>
@@ -19378,12 +17948,12 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="48" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D14" s="48">
         <v>1</v>
@@ -19392,12 +17962,12 @@
         <f>D14/D18</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F14" s="73"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="49" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I14" s="49">
         <v>2</v>
@@ -19408,12 +17978,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="48" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D15" s="48">
         <v>1</v>
@@ -19432,12 +18002,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="49" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D16" s="48">
         <v>2</v>
@@ -19448,12 +18018,12 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="49" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D17" s="49">
         <v>2</v>
@@ -19529,154 +18099,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>629</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>663</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="68" t="s">
+        <v>634</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>629</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>715</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>716</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>663</v>
+      </c>
+      <c r="L1" s="39"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="39"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="73" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3" s="75" t="s">
         <v>635</v>
       </c>
-      <c r="B1" s="63" t="s">
-        <v>630</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>716</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>718</v>
-      </c>
-      <c r="E1" s="68" t="s">
+      <c r="C3" s="56" t="s">
+        <v>653</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>664</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="67" t="s">
-        <v>635</v>
-      </c>
-      <c r="H1" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>717</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>718</v>
-      </c>
-      <c r="K1" s="67" t="s">
-        <v>664</v>
-      </c>
-      <c r="L1" s="39"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="39"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
-        <v>633</v>
-      </c>
-      <c r="B3" s="74" t="s">
+      <c r="E3" s="49" t="s">
+        <v>695</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="75" t="s">
+        <v>632</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>639</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>651</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>676</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>701</v>
+      </c>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="56" t="s">
+        <v>661</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>724</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>702</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="75" t="s">
+        <v>637</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>651</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>704</v>
+      </c>
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="78"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>724</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>702</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="49" t="s">
+        <v>652</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>672</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>700</v>
+      </c>
+      <c r="L5" s="41"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="78"/>
+      <c r="B6" s="49" t="s">
         <v>636</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>654</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C6" s="56" t="s">
+        <v>656</v>
+      </c>
+      <c r="D6" s="56" t="s">
         <v>665</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>697</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="74" t="s">
-        <v>633</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>640</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>652</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>677</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>703</v>
-      </c>
-      <c r="L3" s="41"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="49" t="s">
-        <v>662</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>690</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>704</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="74" t="s">
-        <v>638</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>652</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>676</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>706</v>
-      </c>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="77"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="49" t="s">
-        <v>663</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>690</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>704</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="49" t="s">
-        <v>653</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>673</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>702</v>
-      </c>
-      <c r="L5" s="41"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
-      <c r="B6" s="49" t="s">
-        <v>637</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>657</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>666</v>
-      </c>
       <c r="E6" s="49" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="44"/>
@@ -19687,127 +18257,127 @@
       <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="48" t="s">
+        <v>638</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>659</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>669</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>699</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="72" t="s">
+        <v>633</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>640</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>651</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>677</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>707</v>
+      </c>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="78"/>
+      <c r="B8" s="72" t="s">
         <v>639</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>660</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>670</v>
-      </c>
-      <c r="E7" s="49" t="s">
+      <c r="C8" s="56" t="s">
+        <v>653</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>685</v>
+      </c>
+      <c r="E8" s="49" t="s">
         <v>701</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="71" t="s">
-        <v>634</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>641</v>
-      </c>
-      <c r="I7" s="74" t="s">
+      <c r="F8" s="43"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>707</v>
+      </c>
+      <c r="L8" s="41"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="78"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="56" t="s">
+        <v>680</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>686</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>701</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72" t="s">
+        <v>637</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>651</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>694</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>704</v>
+      </c>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="78"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="56" t="s">
+        <v>723</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>687</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>701</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="49" t="s">
         <v>652</v>
       </c>
-      <c r="J7" s="49" t="s">
-        <v>678</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>709</v>
-      </c>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="71" t="s">
-        <v>640</v>
-      </c>
-      <c r="C8" s="49" t="s">
+      <c r="J10" s="49" t="s">
+        <v>672</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="78"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="56" t="s">
         <v>654</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>686</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>703</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="49" t="s">
-        <v>679</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>709</v>
-      </c>
-      <c r="L8" s="41"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="77"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="49" t="s">
-        <v>681</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>687</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>703</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71" t="s">
-        <v>638</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>652</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>696</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>706</v>
-      </c>
-      <c r="L9" s="41"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="77"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="49" t="s">
+      <c r="D11" s="56" t="s">
         <v>688</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>689</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>703</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="49" t="s">
-        <v>653</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>673</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="49" t="s">
-        <v>655</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>690</v>
-      </c>
       <c r="E11" s="55" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="44"/>
@@ -19817,16 +18387,16 @@
       <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="49" t="s">
-        <v>684</v>
+      <c r="A12" s="78"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="56" t="s">
+        <v>683</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="42"/>
@@ -19837,16 +18407,16 @@
       <c r="L12" s="41"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="77"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="49" t="s">
-        <v>685</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>665</v>
+      <c r="A13" s="78"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="56" t="s">
+        <v>684</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>664</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="42"/>
@@ -19857,18 +18427,18 @@
       <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="77"/>
-      <c r="B14" s="70" t="s">
-        <v>638</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>651</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>667</v>
+      <c r="A14" s="78"/>
+      <c r="B14" s="71" t="s">
+        <v>637</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>666</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="44"/>
@@ -19879,16 +18449,16 @@
       <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="77"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="49" t="s">
-        <v>695</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>665</v>
+      <c r="A15" s="78"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="56" t="s">
+        <v>693</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>664</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="44"/>
@@ -19899,16 +18469,16 @@
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="49" t="s">
-        <v>658</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>668</v>
+      <c r="A16" s="78"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="56" t="s">
+        <v>657</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>667</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
@@ -19919,16 +18489,16 @@
       <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="49" t="s">
-        <v>659</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>669</v>
+      <c r="A17" s="74"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="56" t="s">
+        <v>658</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>668</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F17" s="43"/>
       <c r="L17" s="41"/>
@@ -19948,20 +18518,20 @@
       <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
-        <v>634</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>644</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>662</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>675</v>
+      <c r="A19" s="73" t="s">
+        <v>633</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>661</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>674</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="44"/>
@@ -19972,16 +18542,16 @@
       <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="49" t="s">
-        <v>663</v>
+      <c r="A20" s="78"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="56" t="s">
+        <v>662</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="44"/>
@@ -19991,18 +18561,18 @@
       <c r="K20" s="44"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="77"/>
-      <c r="B21" s="70" t="s">
-        <v>642</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>694</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>665</v>
+      <c r="A21" s="78"/>
+      <c r="B21" s="71" t="s">
+        <v>641</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>692</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>664</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="44"/>
@@ -20012,16 +18582,16 @@
       <c r="K21" s="44"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="49" t="s">
-        <v>661</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>686</v>
+      <c r="A22" s="78"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="56" t="s">
+        <v>660</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>685</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="44"/>
@@ -20031,18 +18601,18 @@
       <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="77"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>656</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>674</v>
+        <v>642</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>655</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>673</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="44"/>
@@ -20052,18 +18622,18 @@
       <c r="K23" s="44"/>
     </row>
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="77"/>
-      <c r="B24" s="71" t="s">
-        <v>641</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>654</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>691</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>699</v>
+      <c r="A24" s="78"/>
+      <c r="B24" s="75" t="s">
+        <v>640</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>653</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>689</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>707</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="44"/>
@@ -20073,16 +18643,16 @@
       <c r="K24" s="44"/>
     </row>
     <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="77"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="49" t="s">
-        <v>681</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>693</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>699</v>
+      <c r="A25" s="78"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="56" t="s">
+        <v>680</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>691</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>707</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="44"/>
@@ -20092,16 +18662,16 @@
       <c r="K25" s="44"/>
     </row>
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="77"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="49" t="s">
-        <v>684</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>672</v>
-      </c>
-      <c r="E26" s="55" t="s">
-        <v>699</v>
+      <c r="A26" s="78"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="56" t="s">
+        <v>683</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>671</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>707</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="44"/>
@@ -20111,16 +18681,16 @@
       <c r="K26" s="44"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="77"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="49" t="s">
-        <v>688</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>692</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>699</v>
+      <c r="A27" s="78"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="56" t="s">
+        <v>723</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>690</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>707</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="44"/>
@@ -20130,16 +18700,18 @@
       <c r="K27" s="44"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="77"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="49" t="s">
-        <v>654</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>691</v>
+      <c r="A28" s="78"/>
+      <c r="B28" s="71" t="s">
+        <v>637</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>670</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="44"/>
@@ -20149,16 +18721,16 @@
       <c r="K28" s="44"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="71"/>
-      <c r="C29" s="49" t="s">
-        <v>681</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>693</v>
+      <c r="C29" s="56" t="s">
+        <v>692</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>664</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="44"/>
@@ -20168,16 +18740,16 @@
       <c r="K29" s="44"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="77"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="71"/>
-      <c r="C30" s="49" t="s">
-        <v>684</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>672</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>703</v>
+      <c r="C30" s="56" t="s">
+        <v>657</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>667</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>698</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="44"/>
@@ -20187,17 +18759,8 @@
       <c r="K30" s="44"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="77"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="49" t="s">
-        <v>688</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>692</v>
-      </c>
-      <c r="E31" s="55" t="s">
-        <v>703</v>
-      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="40"/>
       <c r="F31" s="43"/>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
@@ -20206,19 +18769,6 @@
       <c r="K31" s="44"/>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="77"/>
-      <c r="B32" s="70" t="s">
-        <v>638</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>651</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>671</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>698</v>
-      </c>
       <c r="F32" s="43"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
@@ -20226,62 +18776,38 @@
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
     </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="77"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="49" t="s">
-        <v>694</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>665</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>698</v>
-      </c>
+    <row r="33" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
     </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="49" t="s">
-        <v>658</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>668</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>700</v>
-      </c>
+    <row r="34" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
     </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="47"/>
-      <c r="D35" s="40"/>
+    <row r="35" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F35" s="43"/>
     </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F36" s="41"/>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A19:A30"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A19:A34"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -20309,7 +18835,7 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -20327,13 +18853,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E1" s="45" t="s">
         <v>0</v>
@@ -20341,163 +18867,163 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="55" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="55" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="55" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="55" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="55" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="55" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="55" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="55" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="55" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="55" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E12" s="55" t="s">
         <v>647</v>
@@ -20505,194 +19031,186 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="55" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="55" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="55" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C16" s="44"/>
-      <c r="D16" s="55" t="s">
-        <v>707</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>682</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C17" s="44"/>
+      <c r="D17" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C18" s="44"/>
-      <c r="D18" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>680</v>
+      <c r="D18" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="E18" s="36">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>650</v>
       </c>
       <c r="E19" s="36">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="E20" s="36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E21" s="36">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>647</v>
       </c>
       <c r="E22" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E23" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>650</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>646</v>
-      </c>
-      <c r="E24" s="36">
-        <v>2</v>
+        <v>649</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>682</v>
+      </c>
+      <c r="E24" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="54" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>650</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>683</v>
-      </c>
-      <c r="E25" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="39">
-        <f>SUM(E19:E25)</f>
-        <v>15</v>
+        <v>649</v>
+      </c>
+      <c r="E25" s="39">
+        <f>SUM(E18:E24)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:E16">
+  <sortState ref="D2:E15">
     <sortCondition ref="D2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DevelopersSentiments.xlsx
+++ b/DevelopersSentiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rui\Estudo\MSC Unifacs\Acadêmico\Dissertação\Orientação\Glauco\reuniões orientação glauco\reuniao 20200105\ICEIS 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05253BD5-B53D-4208-B6BF-6284B956969D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4305717-FCC9-4F85-ADC0-5387C97D727D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,9 @@
     <sheet name="sources" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">impacts!$A$1:$E$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">impacts!$A$1:$E$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ours bibs'!$A$1:$J$230</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">selecteds!$A$2:$P$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">selecteds!$A$2:$P$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">sources!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="723">
   <si>
     <t>Source</t>
   </si>
@@ -2167,9 +2167,6 @@
     <t>Rudeness</t>
   </si>
   <si>
-    <t>Distrust</t>
-  </si>
-  <si>
     <t>Discontent</t>
   </si>
   <si>
@@ -2206,9 +2203,6 @@
     <t>Collaboration</t>
   </si>
   <si>
-    <t>Code reuse</t>
-  </si>
-  <si>
     <t>Problem solving</t>
   </si>
   <si>
@@ -2260,9 +2254,6 @@
     <t>Longer</t>
   </si>
   <si>
-    <t>Inhibition</t>
-  </si>
-  <si>
     <t>Decreased Interest</t>
   </si>
   <si>
@@ -2347,9 +2338,6 @@
     <t>SP11</t>
   </si>
   <si>
-    <t>SP12</t>
-  </si>
-  <si>
     <t>SP05</t>
   </si>
   <si>
@@ -2360,6 +2348,57 @@
   </si>
   <si>
     <t>SP10</t>
+  </si>
+  <si>
+    <t>SP03, SP11</t>
+  </si>
+  <si>
+    <t>SP02, SP04</t>
+  </si>
+  <si>
+    <t>SP02, SP04, SP07</t>
+  </si>
+  <si>
+    <t>SP06, SP09</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Software Practice</t>
+  </si>
+  <si>
+    <t>Software Artifact</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t>64 documents; 0 replicateds; 14 excludeds; 45 not selecteds; 5 selecteds</t>
+  </si>
+  <si>
+    <t>22 documents; 9 replicateds; 5 excludeds; 5 not selecteds; 3 selecteds</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Work flow</t>
+  </si>
+  <si>
+    <t>Increased Interest</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>SP01, SP11</t>
+  </si>
+  <si>
+    <t>SP03, SP10</t>
   </si>
   <si>
     <r>
@@ -2383,62 +2422,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>S11</t>
+      <t>S10</t>
     </r>
   </si>
   <si>
-    <t>SP01, SP12</t>
-  </si>
-  <si>
-    <t>SP03, SP11</t>
-  </si>
-  <si>
-    <t>SP02, SP04</t>
-  </si>
-  <si>
-    <t>SP02, SP04, SP07</t>
-  </si>
-  <si>
-    <t>SP06, SP09</t>
-  </si>
-  <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>Software Practice</t>
-  </si>
-  <si>
-    <t>Software Artifact</t>
-  </si>
-  <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>RESULTS</t>
-  </si>
-  <si>
-    <t>229 documents; 9 replicateds; 34 excludeds; 174 not selecteds; 12 selecteds</t>
-  </si>
-  <si>
-    <t>64 documents; 0 replicateds; 14 excludeds; 45 not selecteds; 5 selecteds</t>
-  </si>
-  <si>
-    <t>22 documents; 9 replicateds; 5 excludeds; 5 not selecteds; 3 selecteds</t>
-  </si>
-  <si>
-    <t>143 documents; 0 replicateds; 15 excludeds; 124 not selecteds; 4 selecteds</t>
-  </si>
-  <si>
-    <t>Authors</t>
-  </si>
-  <si>
-    <t>Work flow</t>
-  </si>
-  <si>
-    <t>Increased Interest</t>
-  </si>
-  <si>
-    <t>Id</t>
+    <t>143 documents; 0 replicateds; 15 excludeds; 125 not selecteds; 3 selecteds</t>
+  </si>
+  <si>
+    <t>229 documents; 9 replicateds; 34 excludeds; 175 not selecteds; 11 selecteds</t>
   </si>
 </sst>
 </file>
@@ -2726,7 +2717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2882,6 +2873,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2927,9 +2924,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2943,6 +2937,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4467,16 +4464,16 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>sentiments!$B$13:$C$17</c15:sqref>
+                    <c15:sqref>sentiments!$B$13:$C$16</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>sentiments!$B$13:$B$17</c15:sqref>
+                    <c15:sqref>sentiments!$B$13:$B$16</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>sentiments!$B$13:$B$17</c:f>
+              <c:f>sentiments!$B$13:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Discontent</c:v>
                 </c:pt>
@@ -4484,12 +4481,9 @@
                   <c:v>Rudeness</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Distrust</c:v>
+                  <c:v>Unhappiness</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Unhappiness</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Not specified</c:v>
                 </c:pt>
               </c:strCache>
@@ -4497,10 +4491,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sentiments!$D$13:$D$17</c:f>
+              <c:f>sentiments!$D$13:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4508,12 +4502,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5109,7 +5100,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{88D0D14C-432D-4CAA-AF3F-DFE2AAD2E722}</c15:txfldGUID>
-                      <c15:f>sources!$D$24</c15:f>
+                      <c15:f>sources!$D$23</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5160,7 +5151,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sources!$D$18:$D$24</c:f>
+              <c:f>sources!$D$17:$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5189,7 +5180,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sources!$E$18:$E$24</c:f>
+              <c:f>sources!$E$17:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5209,7 +5200,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -8158,13 +8149,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>768802</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>159203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>374195</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>126546</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8194,13 +8185,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>755197</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>360590</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>140153</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8572,7 +8563,7 @@
   </sheetPr>
   <dimension ref="A1:AMP236"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A213" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8597,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -14532,11 +14523,11 @@
       <c r="F218" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G218" s="7" t="s">
-        <v>467</v>
-      </c>
+      <c r="G218" s="7"/>
       <c r="H218" s="7"/>
-      <c r="I218" s="7"/>
+      <c r="I218" s="7" t="s">
+        <v>469</v>
+      </c>
       <c r="J218" s="7"/>
     </row>
     <row r="219" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14867,10 +14858,10 @@
     </row>
     <row r="233" spans="1:1030" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -14884,7 +14875,7 @@
         <v>5</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -14898,7 +14889,7 @@
         <v>143</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -16981,7 +16972,7 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AMP14"/>
+  <dimension ref="A1:AMP13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -17000,64 +16991,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1030" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
-        <v>725</v>
-      </c>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>722</v>
-      </c>
-      <c r="E1" s="57" t="s">
+      <c r="D1" s="59" t="s">
+        <v>714</v>
+      </c>
+      <c r="E1" s="59" t="s">
         <v>616</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="59" t="s">
         <v>617</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="59" t="s">
         <v>618</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="59" t="s">
         <v>619</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="59" t="s">
         <v>620</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="59" t="s">
         <v>622</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="59" t="s">
         <v>621</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="59" t="s">
         <v>623</v>
       </c>
-      <c r="M1" s="58" t="s">
-        <v>648</v>
-      </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60" t="s">
+      <c r="M1" s="60" t="s">
+        <v>647</v>
+      </c>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62" t="s">
         <v>626</v>
       </c>
-      <c r="P1" s="61"/>
+      <c r="P1" s="63"/>
     </row>
     <row r="2" spans="1:1030" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="34" t="s">
         <v>627</v>
       </c>
@@ -17073,7 +17064,7 @@
     </row>
     <row r="3" spans="1:1030" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>5</v>
@@ -17117,7 +17108,7 @@
     </row>
     <row r="4" spans="1:1030" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>188</v>
@@ -17163,7 +17154,7 @@
     </row>
     <row r="5" spans="1:1030" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>5</v>
@@ -17208,7 +17199,7 @@
     </row>
     <row r="6" spans="1:1030" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>5</v>
@@ -17254,7 +17245,7 @@
     </row>
     <row r="7" spans="1:1030" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>5</v>
@@ -17298,7 +17289,7 @@
     </row>
     <row r="8" spans="1:1030" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>143</v>
@@ -17342,7 +17333,7 @@
     </row>
     <row r="9" spans="1:1030" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>143</v>
@@ -17395,7 +17386,7 @@
     </row>
     <row r="10" spans="1:1030" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>5</v>
@@ -17448,7 +17439,7 @@
     </row>
     <row r="11" spans="1:1030" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>143</v>
@@ -17494,16 +17485,16 @@
     </row>
     <row r="12" spans="1:1030" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>188</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>624</v>
@@ -17526,28 +17517,34 @@
       <c r="K12" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="L12" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="M12" s="32"/>
+      <c r="L12" s="33" t="s">
+        <v>624</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>624</v>
+      </c>
       <c r="N12" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
+      <c r="O12" s="35" t="s">
+        <v>624</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="13" spans="1:1030" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>188</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>624</v>
@@ -17570,8 +17567,8 @@
       <c r="K13" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="L13" s="33" t="s">
-        <v>624</v>
+      <c r="L13" s="21" t="s">
+        <v>625</v>
       </c>
       <c r="M13" s="35" t="s">
         <v>624</v>
@@ -17579,62 +17576,12 @@
       <c r="N13" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="O13" s="35" t="s">
-        <v>624</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1030" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>702</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>624</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>624</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>624</v>
-      </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P14" xr:uid="{FAD1F041-F910-4790-B5BA-53F34B2224AF}">
-    <sortState ref="A4:P12">
+  <autoFilter ref="A2:P13" xr:uid="{FAD1F041-F910-4790-B5BA-53F34B2224AF}">
+    <sortState ref="A4:P11">
       <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>
@@ -17684,65 +17631,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
-        <v>648</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="F1" s="67" t="s">
+      <c r="A1" s="67" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="F1" s="69" t="s">
         <v>626</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>634</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="66" t="s">
         <v>629</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="71" t="s">
         <v>630</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="66" t="s">
         <v>631</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="70" t="s">
         <v>634</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="70" t="s">
         <v>629</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="70" t="s">
         <v>631</v>
       </c>
       <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="64"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="66"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="73" t="s">
         <v>632</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>635</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="D4" s="48">
         <v>2</v>
@@ -17751,14 +17698,14 @@
         <f>D4/D9</f>
         <v>0.25</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="74" t="s">
         <v>632</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>639</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="I4" s="36">
         <v>1</v>
@@ -17769,12 +17716,12 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="49" t="s">
         <v>636</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D5" s="48">
         <v>1</v>
@@ -17783,12 +17730,12 @@
         <f>D5/D9</f>
         <v>0.125</v>
       </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="37" t="s">
         <v>637</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="I5" s="37">
         <v>2</v>
@@ -17799,12 +17746,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="48" t="s">
         <v>638</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D6" s="48">
         <v>1</v>
@@ -17823,12 +17770,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="49" t="s">
         <v>639</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D7" s="48">
         <v>1</v>
@@ -17839,12 +17786,12 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="49" t="s">
         <v>637</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D8" s="49">
         <v>3</v>
@@ -17876,68 +17823,68 @@
       <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="66" t="s">
         <v>634</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="66" t="s">
         <v>629</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>630</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="66" t="s">
         <v>631</v>
       </c>
       <c r="E11" s="41"/>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="70" t="s">
         <v>634</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="70" t="s">
         <v>629</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="70" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="76" t="s">
         <v>633</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D13" s="48">
         <v>1</v>
       </c>
       <c r="E13" s="41">
-        <f>D13/D18</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F13" s="73" t="s">
+        <f>D13/D17</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F13" s="74" t="s">
         <v>633</v>
       </c>
       <c r="G13" s="49" t="s">
         <v>640</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="I13" s="48">
         <v>2</v>
@@ -17948,26 +17895,26 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="48" t="s">
         <v>641</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D14" s="48">
         <v>1</v>
       </c>
       <c r="E14" s="41">
-        <f>D14/D18</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F14" s="74"/>
+        <f>D14/D17</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F14" s="75"/>
       <c r="G14" s="49" t="s">
         <v>637</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="I14" s="49">
         <v>2</v>
@@ -17978,19 +17925,19 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
-      <c r="B15" s="48" t="s">
-        <v>642</v>
+      <c r="A15" s="77"/>
+      <c r="B15" s="49" t="s">
+        <v>640</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D15" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="41">
-        <f>D15/D18</f>
-        <v>0.14285714285714285</v>
+        <f>D15/D17</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I15" s="40">
         <f>SUM(I13:I14)</f>
@@ -18002,61 +17949,46 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="49" t="s">
-        <v>640</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>709</v>
-      </c>
-      <c r="D16" s="48">
+        <v>637</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>704</v>
+      </c>
+      <c r="D16" s="49">
         <v>2</v>
       </c>
       <c r="E16" s="41">
-        <f>D16/D18</f>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72"/>
-      <c r="B17" s="49" t="s">
-        <v>637</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>710</v>
-      </c>
-      <c r="D17" s="49">
-        <v>2</v>
-      </c>
-      <c r="E17" s="41">
-        <f>D17/D18</f>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="40">
-        <f>SUM(D13:D17)</f>
-        <v>7</v>
-      </c>
-      <c r="E18" s="53">
-        <f>SUM(E13:E17)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
+        <f>D16/D17</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="40">
+        <f>SUM(D13:D16)</f>
+        <v>6</v>
+      </c>
+      <c r="E17" s="53">
+        <f>SUM(E13:E16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A13:A17"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
@@ -18099,154 +18031,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>634</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>629</v>
       </c>
-      <c r="C1" s="64" t="s">
-        <v>714</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>663</v>
+      <c r="C1" s="66" t="s">
+        <v>708</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>661</v>
       </c>
       <c r="F1" s="39"/>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="70" t="s">
         <v>634</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="70" t="s">
         <v>629</v>
       </c>
-      <c r="I1" s="68" t="s">
-        <v>715</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>716</v>
-      </c>
-      <c r="K1" s="68" t="s">
-        <v>663</v>
+      <c r="I1" s="70" t="s">
+        <v>709</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>710</v>
+      </c>
+      <c r="K1" s="70" t="s">
+        <v>661</v>
       </c>
       <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="70"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="39"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
       <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>632</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>635</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F3" s="43"/>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="76" t="s">
         <v>632</v>
       </c>
       <c r="H3" s="49" t="s">
         <v>639</v>
       </c>
       <c r="I3" s="49" t="s">
+        <v>650</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>673</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>702</v>
+      </c>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="80"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="56" t="s">
+        <v>659</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>716</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>698</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="76" t="s">
+        <v>637</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>650</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>672</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>700</v>
+      </c>
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="80"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="56" t="s">
+        <v>660</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>716</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>698</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="49" t="s">
         <v>651</v>
       </c>
-      <c r="J3" s="49" t="s">
-        <v>676</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>701</v>
-      </c>
-      <c r="L3" s="41"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="56" t="s">
-        <v>661</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>724</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>702</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="75" t="s">
-        <v>637</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>651</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>704</v>
-      </c>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="78"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="56" t="s">
-        <v>662</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>724</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>702</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="49" t="s">
-        <v>652</v>
-      </c>
       <c r="J5" s="49" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K5" s="49" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="49" t="s">
         <v>636</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="44"/>
@@ -18257,127 +18189,127 @@
       <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="78"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="48" t="s">
         <v>638</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F7" s="43"/>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="79" t="s">
         <v>633</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="79" t="s">
         <v>640</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="76" t="s">
+        <v>650</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>674</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>720</v>
+      </c>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="80"/>
+      <c r="B8" s="79" t="s">
+        <v>639</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>682</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>702</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>720</v>
+      </c>
+      <c r="L8" s="41"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="80"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="56" t="s">
+        <v>677</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>683</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>702</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79" t="s">
+        <v>637</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>650</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>691</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>700</v>
+      </c>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="80"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="56" t="s">
+        <v>715</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>684</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>702</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="49" t="s">
         <v>651</v>
       </c>
-      <c r="J7" s="49" t="s">
-        <v>677</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>707</v>
-      </c>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="72" t="s">
-        <v>639</v>
-      </c>
-      <c r="C8" s="56" t="s">
+      <c r="J10" s="49" t="s">
+        <v>670</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="80"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="56" t="s">
         <v>653</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D11" s="56" t="s">
         <v>685</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>701</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="49" t="s">
-        <v>678</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>707</v>
-      </c>
-      <c r="L8" s="41"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="56" t="s">
-        <v>680</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>686</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>701</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72" t="s">
-        <v>637</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>651</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>694</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>704</v>
-      </c>
-      <c r="L9" s="41"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="78"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="56" t="s">
-        <v>723</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>687</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>701</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="49" t="s">
-        <v>652</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>672</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="56" t="s">
-        <v>654</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>688</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>701</v>
+      <c r="E11" s="58" t="s">
+        <v>702</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="44"/>
@@ -18387,16 +18319,16 @@
       <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="56" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>688</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>701</v>
+        <v>685</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>702</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="42"/>
@@ -18407,16 +18339,16 @@
       <c r="L12" s="41"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="78"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="56" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>664</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>701</v>
+        <v>662</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>702</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="42"/>
@@ -18427,18 +18359,18 @@
       <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="78"/>
-      <c r="B14" s="71" t="s">
+      <c r="A14" s="80"/>
+      <c r="B14" s="73" t="s">
         <v>637</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="44"/>
@@ -18449,16 +18381,16 @@
       <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="56" t="s">
+        <v>690</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="E15" s="55" t="s">
         <v>693</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>664</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>696</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="44"/>
@@ -18469,16 +18401,16 @@
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="56" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
@@ -18489,16 +18421,16 @@
       <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="56" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F17" s="43"/>
       <c r="L17" s="41"/>
@@ -18518,20 +18450,20 @@
       <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="74" t="s">
         <v>633</v>
       </c>
-      <c r="B19" s="71" t="s">
-        <v>643</v>
+      <c r="B19" s="73" t="s">
+        <v>642</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="44"/>
@@ -18542,16 +18474,16 @@
       <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="56" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="44"/>
@@ -18561,18 +18493,18 @@
       <c r="K20" s="44"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="80"/>
+      <c r="B21" s="73" t="s">
         <v>641</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="44"/>
@@ -18582,16 +18514,16 @@
       <c r="K21" s="44"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="78"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="56" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="44"/>
@@ -18601,18 +18533,18 @@
       <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="78"/>
-      <c r="B23" s="48" t="s">
-        <v>642</v>
+      <c r="A23" s="80"/>
+      <c r="B23" s="76" t="s">
+        <v>640</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>673</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>706</v>
+        <v>686</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>720</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="44"/>
@@ -18622,18 +18554,16 @@
       <c r="K23" s="44"/>
     </row>
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="78"/>
-      <c r="B24" s="75" t="s">
-        <v>640</v>
-      </c>
+      <c r="A24" s="80"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="56" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>689</v>
-      </c>
-      <c r="E24" s="56" t="s">
-        <v>707</v>
+        <v>688</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>720</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="44"/>
@@ -18643,16 +18573,16 @@
       <c r="K24" s="44"/>
     </row>
     <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="56" t="s">
         <v>680</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>691</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>707</v>
+        <v>669</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>720</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="44"/>
@@ -18662,16 +18592,16 @@
       <c r="K25" s="44"/>
     </row>
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="56" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>671</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>707</v>
+        <v>687</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>720</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="44"/>
@@ -18681,16 +18611,18 @@
       <c r="K26" s="44"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="78"/>
-      <c r="B27" s="77"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="73" t="s">
+        <v>637</v>
+      </c>
       <c r="C27" s="56" t="s">
-        <v>723</v>
+        <v>649</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>690</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>707</v>
+        <v>668</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>693</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="44"/>
@@ -18700,18 +18632,16 @@
       <c r="K27" s="44"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="78"/>
-      <c r="B28" s="71" t="s">
-        <v>637</v>
-      </c>
+      <c r="A28" s="80"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="56" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
       <c r="D28" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>696</v>
+        <v>662</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>693</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="44"/>
@@ -18721,16 +18651,16 @@
       <c r="K28" s="44"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
-      <c r="B29" s="71"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="56" t="s">
-        <v>692</v>
+        <v>655</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>664</v>
-      </c>
-      <c r="E29" s="55" t="s">
-        <v>696</v>
+        <v>665</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>695</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="44"/>
@@ -18740,17 +18670,8 @@
       <c r="K29" s="44"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="74"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="56" t="s">
-        <v>657</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>667</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>698</v>
-      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="40"/>
       <c r="F30" s="43"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
@@ -18759,8 +18680,6 @@
       <c r="K30" s="44"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="47"/>
-      <c r="D31" s="40"/>
       <c r="F31" s="43"/>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
@@ -18799,15 +18718,15 @@
     <row r="37" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A19:A29"/>
     <mergeCell ref="A3:A17"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B28:B30"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -18835,7 +18754,7 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -18853,13 +18772,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E1" s="45" t="s">
         <v>0</v>
@@ -18867,350 +18786,336 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="55" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="55" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="55" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="55" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="55" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="55" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="55" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="55" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="55" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="55" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="55" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="55" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C15" s="44"/>
-      <c r="D15" s="55" t="s">
-        <v>705</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>681</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C16" s="44"/>
+      <c r="D16" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C17" s="44"/>
-      <c r="D17" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>679</v>
+      <c r="D17" s="36" t="s">
+        <v>648</v>
+      </c>
+      <c r="E17" s="36">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="36" t="s">
         <v>649</v>
       </c>
       <c r="E18" s="36">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B19" s="36" t="s">
+        <v>648</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>643</v>
+      </c>
+      <c r="E19" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>648</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>645</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>650</v>
-      </c>
-      <c r="E19" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>701</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>644</v>
-      </c>
       <c r="E20" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
-        <v>701</v>
+      <c r="A21" s="57" t="s">
+        <v>702</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>646</v>
       </c>
       <c r="E21" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
-        <v>701</v>
+      <c r="A22" s="57" t="s">
+        <v>702</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E22" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
-        <v>701</v>
+      <c r="A23" s="36" t="s">
+        <v>698</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>645</v>
-      </c>
-      <c r="E23" s="36">
-        <v>2</v>
+        <v>648</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="E23" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>702</v>
+      <c r="A24" s="57" t="s">
+        <v>698</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>682</v>
-      </c>
-      <c r="E24" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
-        <v>702</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="E25" s="39">
-        <f>SUM(E18:E24)</f>
-        <v>14</v>
+        <v>648</v>
+      </c>
+      <c r="E24" s="39">
+        <f>SUM(E17:E23)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:E15">
+  <sortState ref="D2:E14">
     <sortCondition ref="D2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/DevelopersSentiments.xlsx
+++ b/DevelopersSentiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rui\Estudo\MSC Unifacs\Acadêmico\Dissertação\Orientação\Glauco\reuniões orientação glauco\reuniao 20200105\ICEIS 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4305717-FCC9-4F85-ADC0-5387C97D727D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83DB706-1E30-462C-BFC3-0AF040CABC1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">selecteds!$A$2:$P$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">sources!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2882,6 +2882,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2894,13 +2900,28 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2912,37 +2933,16 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16991,7 +16991,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1030" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="60" t="s">
         <v>717</v>
       </c>
       <c r="B1" s="59" t="s">
@@ -17027,17 +17027,17 @@
       <c r="L1" s="59" t="s">
         <v>623</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>647</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="64" t="s">
         <v>626</v>
       </c>
-      <c r="P1" s="63"/>
+      <c r="P1" s="65"/>
     </row>
     <row r="2" spans="1:1030" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
+      <c r="A2" s="61"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -17586,6 +17586,11 @@
     </sortState>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -17595,11 +17600,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -17631,55 +17631,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="74" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="F1" s="69" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
+      <c r="F1" s="76" t="s">
         <v>626</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>634</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="68" t="s">
         <v>629</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="77" t="s">
         <v>630</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="68" t="s">
         <v>631</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="69" t="s">
         <v>634</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="69" t="s">
         <v>629</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="69" t="s">
         <v>630</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="69" t="s">
         <v>631</v>
       </c>
       <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="66"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="73" t="s">
@@ -17698,14 +17698,14 @@
         <f>D4/D9</f>
         <v>0.25</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="66" t="s">
         <v>632</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>639</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I4" s="36">
         <v>1</v>
@@ -17730,7 +17730,7 @@
         <f>D5/D9</f>
         <v>0.125</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="37" t="s">
         <v>637</v>
       </c>
@@ -17823,45 +17823,45 @@
       <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="68" t="s">
         <v>634</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="68" t="s">
         <v>629</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="68" t="s">
         <v>630</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="68" t="s">
         <v>631</v>
       </c>
       <c r="E11" s="41"/>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="69" t="s">
         <v>634</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="69" t="s">
         <v>629</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="69" t="s">
         <v>630</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="69" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="70" t="s">
         <v>633</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -17877,7 +17877,7 @@
         <f>D13/D17</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="66" t="s">
         <v>633</v>
       </c>
       <c r="G13" s="49" t="s">
@@ -17895,7 +17895,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="77"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="48" t="s">
         <v>641</v>
       </c>
@@ -17909,7 +17909,7 @@
         <f>D14/D17</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="49" t="s">
         <v>637</v>
       </c>
@@ -17925,7 +17925,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="77"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="49" t="s">
         <v>640</v>
       </c>
@@ -17949,7 +17949,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="49" t="s">
         <v>637</v>
       </c>
@@ -17977,18 +17977,6 @@
     <row r="18" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
@@ -17999,6 +17987,18 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18031,58 +18031,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>634</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="68" t="s">
         <v>629</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="68" t="s">
         <v>708</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="77" t="s">
         <v>661</v>
       </c>
       <c r="F1" s="39"/>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>634</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="69" t="s">
         <v>629</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="69" t="s">
         <v>709</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="69" t="s">
         <v>710</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="69" t="s">
         <v>661</v>
       </c>
       <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="72"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="39"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="66" t="s">
         <v>632</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="70" t="s">
         <v>635</v>
       </c>
       <c r="C3" s="56" t="s">
@@ -18095,7 +18095,7 @@
         <v>692</v>
       </c>
       <c r="F3" s="43"/>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="70" t="s">
         <v>632</v>
       </c>
       <c r="H3" s="49" t="s">
@@ -18113,8 +18113,8 @@
       <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="56" t="s">
         <v>659</v>
       </c>
@@ -18125,8 +18125,8 @@
         <v>698</v>
       </c>
       <c r="F4" s="43"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="76" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="70" t="s">
         <v>637</v>
       </c>
       <c r="I4" s="49" t="s">
@@ -18141,8 +18141,8 @@
       <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="80"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="56" t="s">
         <v>660</v>
       </c>
@@ -18153,8 +18153,8 @@
         <v>698</v>
       </c>
       <c r="F5" s="43"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
       <c r="I5" s="49" t="s">
         <v>651</v>
       </c>
@@ -18167,7 +18167,7 @@
       <c r="L5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="49" t="s">
         <v>636</v>
       </c>
@@ -18189,7 +18189,7 @@
       <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="80"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="48" t="s">
         <v>638</v>
       </c>
@@ -18203,13 +18203,13 @@
         <v>696</v>
       </c>
       <c r="F7" s="43"/>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="80" t="s">
         <v>633</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="80" t="s">
         <v>640</v>
       </c>
-      <c r="I7" s="76" t="s">
+      <c r="I7" s="70" t="s">
         <v>650</v>
       </c>
       <c r="J7" s="49" t="s">
@@ -18221,8 +18221,8 @@
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
-      <c r="B8" s="79" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="80" t="s">
         <v>639</v>
       </c>
       <c r="C8" s="56" t="s">
@@ -18235,9 +18235,9 @@
         <v>702</v>
       </c>
       <c r="F8" s="43"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="78"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="49" t="s">
         <v>675</v>
       </c>
@@ -18247,8 +18247,8 @@
       <c r="L8" s="41"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="56" t="s">
         <v>677</v>
       </c>
@@ -18259,8 +18259,8 @@
         <v>702</v>
       </c>
       <c r="F9" s="43"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79" t="s">
+      <c r="G9" s="80"/>
+      <c r="H9" s="80" t="s">
         <v>637</v>
       </c>
       <c r="I9" s="49" t="s">
@@ -18275,8 +18275,8 @@
       <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="80"/>
-      <c r="B10" s="79"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="56" t="s">
         <v>715</v>
       </c>
@@ -18287,8 +18287,8 @@
         <v>702</v>
       </c>
       <c r="F10" s="43"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="49" t="s">
         <v>651</v>
       </c>
@@ -18300,8 +18300,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="80"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="56" t="s">
         <v>653</v>
       </c>
@@ -18319,8 +18319,8 @@
       <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="80"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="56" t="s">
         <v>680</v>
       </c>
@@ -18339,8 +18339,8 @@
       <c r="L12" s="41"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="80"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="56" t="s">
         <v>681</v>
       </c>
@@ -18359,7 +18359,7 @@
       <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="80"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="73" t="s">
         <v>637</v>
       </c>
@@ -18381,7 +18381,7 @@
       <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="73"/>
       <c r="C15" s="56" t="s">
         <v>690</v>
@@ -18401,7 +18401,7 @@
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="80"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="73"/>
       <c r="C16" s="56" t="s">
         <v>655</v>
@@ -18421,7 +18421,7 @@
       <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="73"/>
       <c r="C17" s="56" t="s">
         <v>656</v>
@@ -18450,7 +18450,7 @@
       <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="66" t="s">
         <v>633</v>
       </c>
       <c r="B19" s="73" t="s">
@@ -18474,7 +18474,7 @@
       <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="80"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="73"/>
       <c r="C20" s="56" t="s">
         <v>660</v>
@@ -18493,7 +18493,7 @@
       <c r="K20" s="44"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="80"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="73" t="s">
         <v>641</v>
       </c>
@@ -18514,7 +18514,7 @@
       <c r="K21" s="44"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="80"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="73"/>
       <c r="C22" s="56" t="s">
         <v>658</v>
@@ -18533,8 +18533,8 @@
       <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="80"/>
-      <c r="B23" s="76" t="s">
+      <c r="A23" s="79"/>
+      <c r="B23" s="70" t="s">
         <v>640</v>
       </c>
       <c r="C23" s="56" t="s">
@@ -18554,8 +18554,8 @@
       <c r="K23" s="44"/>
     </row>
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="80"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="56" t="s">
         <v>677</v>
       </c>
@@ -18573,8 +18573,8 @@
       <c r="K24" s="44"/>
     </row>
     <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="80"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="56" t="s">
         <v>680</v>
       </c>
@@ -18592,8 +18592,8 @@
       <c r="K25" s="44"/>
     </row>
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="80"/>
-      <c r="B26" s="78"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="56" t="s">
         <v>715</v>
       </c>
@@ -18611,7 +18611,7 @@
       <c r="K26" s="44"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="80"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="73" t="s">
         <v>637</v>
       </c>
@@ -18632,7 +18632,7 @@
       <c r="K27" s="44"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="73"/>
       <c r="C28" s="56" t="s">
         <v>689</v>
@@ -18651,7 +18651,7 @@
       <c r="K28" s="44"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="73"/>
       <c r="C29" s="56" t="s">
         <v>655</v>
@@ -18718,6 +18718,22 @@
     <row r="37" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A19:A29"/>
     <mergeCell ref="A3:A17"/>
@@ -18727,22 +18743,6 @@
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
